--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3808419.471422681</v>
+        <v>3805875.684677223</v>
       </c>
     </row>
     <row r="7">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.3828147651805</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.3828147651805</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83532033605545</v>
+        <v>263.3828147651795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739395</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7938006179689</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>103.801474135176</v>
+        <v>135.6403760196281</v>
       </c>
       <c r="W2" t="n">
-        <v>263.3828147651805</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>20.92495819607511</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642707</v>
+        <v>18.19058462642715</v>
       </c>
       <c r="S3" t="n">
-        <v>8.771416659201115</v>
+        <v>147.161321588189</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>78.67090732427792</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7281204196193</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>252.4337181583467</v>
+        <v>263.3828147651795</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -947,19 +947,19 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>123.7911484401894</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>72.36698404190659</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>38.08911925464449</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>127.6542494974961</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>83.43224246993546</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>220.4747617066646</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>103.2789529957481</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>196.699784115679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>90.69811547110072</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>182.9661877488792</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>68.17501931583776</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>29.249233057517</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2081,10 +2081,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569544</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206807</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>682.6380379492507</v>
+        <v>294.0593731679729</v>
       </c>
       <c r="C2" t="n">
-        <v>682.6380379492507</v>
+        <v>294.0593731679729</v>
       </c>
       <c r="D2" t="n">
-        <v>682.6380379492507</v>
+        <v>294.0593731679729</v>
       </c>
       <c r="E2" t="n">
-        <v>416.5947907116947</v>
+        <v>294.0593731679729</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5515434741387</v>
+        <v>287.1138724187695</v>
       </c>
       <c r="G2" t="n">
-        <v>137.586573437719</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="H2" t="n">
-        <v>137.586573437719</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121444</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467345</v>
+        <v>49.15993901467277</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935563</v>
+        <v>141.9970572935553</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959974</v>
+        <v>294.0714735959959</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795981</v>
+        <v>494.953000779596</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670331</v>
+        <v>703.6988094670306</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288951</v>
+        <v>887.4762960288922</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108068</v>
+        <v>1009.825128108064</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060722</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060722</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="S2" t="n">
-        <v>1053.531259060722</v>
+        <v>899.1940867193352</v>
       </c>
       <c r="T2" t="n">
-        <v>1053.531259060722</v>
+        <v>684.7549646357893</v>
       </c>
       <c r="U2" t="n">
-        <v>1053.531259060722</v>
+        <v>431.0698539958801</v>
       </c>
       <c r="V2" t="n">
-        <v>948.6812851868067</v>
+        <v>294.0593731679729</v>
       </c>
       <c r="W2" t="n">
-        <v>682.6380379492507</v>
+        <v>294.0593731679729</v>
       </c>
       <c r="X2" t="n">
-        <v>682.6380379492507</v>
+        <v>294.0593731679729</v>
       </c>
       <c r="Y2" t="n">
-        <v>682.6380379492507</v>
+        <v>294.0593731679729</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.2300771021632</v>
+        <v>216.6599758725183</v>
       </c>
       <c r="C3" t="n">
-        <v>475.7770478210363</v>
+        <v>42.20694659139124</v>
       </c>
       <c r="D3" t="n">
-        <v>326.842638159785</v>
+        <v>42.20694659139124</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6051831543295</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="F3" t="n">
-        <v>21.07062518121444</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="G3" t="n">
-        <v>21.07062518121444</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="H3" t="n">
-        <v>21.07062518121444</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121444</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121444</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371045</v>
+        <v>121.2843699815207</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433172</v>
+        <v>267.897026011127</v>
       </c>
       <c r="M3" t="n">
-        <v>432.7162285299034</v>
+        <v>528.6460126286547</v>
       </c>
       <c r="N3" t="n">
-        <v>642.6123592779527</v>
+        <v>738.5421433767035</v>
       </c>
       <c r="O3" t="n">
-        <v>812.4065171760988</v>
+        <v>908.3363012748492</v>
       </c>
       <c r="P3" t="n">
-        <v>929.3482319634669</v>
+        <v>1025.278016062217</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060722</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.15693115524</v>
+        <v>1035.156931155236</v>
       </c>
       <c r="S3" t="n">
-        <v>1026.296914327764</v>
+        <v>886.5091315712066</v>
       </c>
       <c r="T3" t="n">
-        <v>1026.296914327764</v>
+        <v>886.5091315712066</v>
       </c>
       <c r="U3" t="n">
-        <v>1026.296914327764</v>
+        <v>886.5091315712066</v>
       </c>
       <c r="V3" t="n">
-        <v>1026.296914327764</v>
+        <v>886.5091315712066</v>
       </c>
       <c r="W3" t="n">
-        <v>1026.296914327764</v>
+        <v>632.271774843005</v>
       </c>
       <c r="X3" t="n">
-        <v>818.4454141222313</v>
+        <v>424.4202746374722</v>
       </c>
       <c r="Y3" t="n">
-        <v>818.4454141222313</v>
+        <v>216.6599758725183</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>315.8736662615179</v>
+        <v>100.5361881350304</v>
       </c>
       <c r="C4" t="n">
-        <v>315.8736662615179</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="D4" t="n">
-        <v>315.8736662615179</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9605726791248</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="F4" t="n">
-        <v>21.07062518121444</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="G4" t="n">
-        <v>21.07062518121444</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121444</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121444</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121444</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481198</v>
+        <v>126.3277805481196</v>
       </c>
       <c r="L4" t="n">
-        <v>316.547135250485</v>
+        <v>316.5471352504846</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4958971570821</v>
+        <v>527.4958971570816</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8633854210595</v>
+        <v>738.8633854210589</v>
       </c>
       <c r="O4" t="n">
-        <v>917.2498138836304</v>
+        <v>917.249813883627</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097373</v>
+        <v>1047.079201097369</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060722</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060722</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.531259060722</v>
+        <v>846.7351778287792</v>
       </c>
       <c r="T4" t="n">
-        <v>1053.531259060722</v>
+        <v>621.2639235784724</v>
       </c>
       <c r="U4" t="n">
-        <v>1053.531259060722</v>
+        <v>621.2639235784724</v>
       </c>
       <c r="V4" t="n">
-        <v>798.846770854835</v>
+        <v>366.5794353725855</v>
       </c>
       <c r="W4" t="n">
-        <v>543.8632171595352</v>
+        <v>100.5361881350304</v>
       </c>
       <c r="X4" t="n">
-        <v>315.8736662615179</v>
+        <v>100.5361881350304</v>
       </c>
       <c r="Y4" t="n">
-        <v>315.8736662615179</v>
+        <v>100.5361881350304</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
         <v>41.00642392276842</v>
@@ -4595,22 +4595,22 @@
         <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>686.1106626298169</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>432.4256445709457</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V5" t="n">
-        <v>307.3840804899464</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="W5" t="n">
-        <v>307.3840804899464</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="X5" t="n">
-        <v>307.3840804899464</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.3840804899464</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342.0846976543626</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="C6" t="n">
-        <v>167.6316683732355</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="D6" t="n">
-        <v>167.6316683732355</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
         <v>21.09711040012049</v>
@@ -4647,19 +4647,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006025</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="W6" t="n">
-        <v>925.9118336449174</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="X6" t="n">
-        <v>718.0603334393845</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="Y6" t="n">
-        <v>510.3000346744306</v>
+        <v>227.7863052531628</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>424.4249251342374</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>255.4887422063304</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>105.3721027939947</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
         <v>21.09711040012049</v>
@@ -4726,19 +4726,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>464.591469045332</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X7" t="n">
-        <v>826.8659691080072</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>606.0733899644771</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>983.638880763154</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>614.6763638227424</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>614.6763638227424</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>228.8881112244981</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>221.9426104752947</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4805,7 +4805,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.652677778257</v>
+        <v>1373.778212738966</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>983.638880763154</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>590.20497511435</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458217</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598626</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319557</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D10" t="n">
-        <v>142.86104461962</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E10" t="n">
-        <v>142.86104461962</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
         <v>51.24678656800311</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1349.048382530606</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1126.069901725341</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>836.9515642291789</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>836.9515642291789</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>836.9515642291789</v>
       </c>
       <c r="X10" t="n">
-        <v>864.3549109336325</v>
+        <v>608.9620133311615</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901023</v>
+        <v>388.1694341876314</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5072,7 +5072,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>411.9631215597619</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>411.9631215597619</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,16 +5273,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075818</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5297,28 +5297,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5498,58 +5498,58 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5750,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,19 +5826,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>343.0994656851783</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6692,28 +6692,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,10 +6725,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6965,7 +6965,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908939</v>
@@ -7138,7 +7138,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7178,13 +7178,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7400,61 +7400,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2223.769289033211</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>241.7297566303649</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7640,16 +7640,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7667,31 +7667,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7734,19 +7734,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877302</v>
+        <v>60.59164343877319</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079522</v>
+        <v>2.109135423079664</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>25.88658582607124</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.01218599085036</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.89877181692329</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8149,7 +8149,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>162.2039267153282</v>
+        <v>162.2039267153257</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8295,7 +8295,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780645</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>162.007309792134</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>72.11969353038613</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>800515.7256176767</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="G2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="N2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="O2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="I2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977561</v>
-      </c>
       <c r="P2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909294</v>
+        <v>679702.4124909283</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680941689</v>
+        <v>366.4703680951022</v>
       </c>
       <c r="D3" t="n">
         <v>391128.3638059435</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642087</v>
+        <v>68912.53318642061</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774266889</v>
+        <v>85.20559774296147</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756974</v>
+        <v>95382.64613756965</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674031</v>
+        <v>253116.5477674034</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
@@ -26427,7 +26427,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
@@ -26439,25 +26439,25 @@
         <v>12386.92018181815</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181815</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181823</v>
       </c>
       <c r="P4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557688</v>
+        <v>63021.46164557681</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-195324.6962862326</v>
+        <v>-195324.6962862318</v>
       </c>
       <c r="C6" t="n">
-        <v>484084.6871379807</v>
+        <v>484084.68713798</v>
       </c>
       <c r="D6" t="n">
-        <v>173702.6321041886</v>
+        <v>173702.6321041888</v>
       </c>
       <c r="E6" t="n">
-        <v>165973.0430674848</v>
+        <v>165938.305142049</v>
       </c>
       <c r="F6" t="n">
-        <v>673458.4846920306</v>
+        <v>673423.7467665952</v>
       </c>
       <c r="G6" t="n">
-        <v>673458.4846920306</v>
+        <v>673423.7467665952</v>
       </c>
       <c r="H6" t="n">
-        <v>673458.4846920307</v>
+        <v>673423.7467665949</v>
       </c>
       <c r="I6" t="n">
-        <v>673458.4846920306</v>
+        <v>673423.7467665947</v>
       </c>
       <c r="J6" t="n">
-        <v>604545.9515056098</v>
+        <v>604511.2135801746</v>
       </c>
       <c r="K6" t="n">
-        <v>673373.2790942879</v>
+        <v>673338.5411688519</v>
       </c>
       <c r="L6" t="n">
-        <v>578075.838554461</v>
+        <v>578041.1006290253</v>
       </c>
       <c r="M6" t="n">
-        <v>540851.1909631039</v>
+        <v>540816.4530376678</v>
       </c>
       <c r="N6" t="n">
-        <v>673458.4846920308</v>
+        <v>673423.7467665948</v>
       </c>
       <c r="O6" t="n">
-        <v>673458.4846920309</v>
+        <v>673423.7467665951</v>
       </c>
       <c r="P6" t="n">
-        <v>673458.4846920308</v>
+        <v>673423.7467665947</v>
       </c>
     </row>
   </sheetData>
@@ -26707,10 +26707,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.368868402633089e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.368868402633089e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960511</v>
+        <v>613.7700232960505</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651805</v>
+        <v>263.3828147651795</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
@@ -26799,10 +26799,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.368868402633089e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960511</v>
+        <v>613.7700232960505</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734271149</v>
+        <v>0.284990473427797</v>
       </c>
       <c r="D3" t="n">
         <v>320.009878348061</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651805</v>
+        <v>263.3828147651795</v>
       </c>
       <c r="C4" t="n">
-        <v>0.331065236325685</v>
+        <v>0.3310652363266513</v>
       </c>
       <c r="D4" t="n">
         <v>376.8709520985327</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651805</v>
+        <v>263.3828147651793</v>
       </c>
       <c r="K4" t="n">
-        <v>0.331065236325685</v>
+        <v>0.3310652363268218</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985325</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.368868402633089e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651805</v>
+        <v>263.3828147651795</v>
       </c>
       <c r="K4" t="n">
-        <v>0.331065236325685</v>
+        <v>0.3310652363266513</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985327</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.5475553070813</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.493230976531</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.452505570876</v>
       </c>
       <c r="H2" t="n">
         <v>314.2053659305182</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3507887739396</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179689</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482595335101</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>223.9507843349589</v>
+        <v>192.1118824505068</v>
       </c>
       <c r="W2" t="n">
-        <v>85.85815395223256</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>136.7201222593258</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0233325848003</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500679</v>
+        <v>99.4852405450068</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807543</v>
+        <v>43.94290942807549</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>138.3899049289879</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8434583985096</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>88.57591377434991</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8841809557937</v>
@@ -27555,10 +27555,10 @@
         <v>152.3867285273816</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180232</v>
+        <v>122.1660284180233</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825656</v>
+        <v>15.10853304825665</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718864</v>
+        <v>127.5277104718865</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586585345273</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>34.08928017824428</v>
+        <v>23.14018357141151</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>203.9611100299455</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>297.3641166365625</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,16 +27695,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>119.5559612007565</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>124.0407336634235</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>63.00172017663371</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27831,13 +27831,13 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>66.04823662992641</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>308.2687497772058</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>173.03131656279</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>54.72293255183052</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>11.69627261285828</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28801,10 +28801,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079601</v>
+        <v>2.467417179079598</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524897</v>
+        <v>25.26943618524894</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1251007964664</v>
+        <v>95.1251007964663</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029074</v>
+        <v>209.4189488029072</v>
       </c>
       <c r="K2" t="n">
-        <v>313.864717993347</v>
+        <v>313.8647179933466</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876044</v>
+        <v>389.376936487604</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460612</v>
+        <v>433.2568667460608</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061212</v>
+        <v>440.2674158061207</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316484</v>
+        <v>415.732036231648</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231207</v>
+        <v>354.8176746231203</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973324</v>
+        <v>266.4532968973321</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753591</v>
+        <v>154.9938943753589</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827646</v>
+        <v>56.22626896827639</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142096</v>
+        <v>10.80111870142095</v>
       </c>
       <c r="U2" t="n">
-        <v>0.197393374326368</v>
+        <v>0.1973933743263678</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410374</v>
+        <v>1.320184578410373</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148967</v>
+        <v>12.75020369148965</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333965</v>
+        <v>45.45372342333959</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435872</v>
+        <v>124.728491243587</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970822</v>
+        <v>213.180857997082</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289719</v>
+        <v>286.6479717289715</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963479</v>
+        <v>334.5046626963475</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682315</v>
+        <v>343.3580057682311</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466121</v>
+        <v>314.1054948466118</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439951</v>
+        <v>252.0973516439948</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774365</v>
+        <v>168.5204033774364</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621607</v>
+        <v>81.96724952621598</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564882</v>
+        <v>24.52184951564879</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311988</v>
+        <v>5.321270296311983</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962991</v>
+        <v>0.08685424857962983</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.10679840266501</v>
+        <v>1.106798402665009</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058007</v>
+        <v>9.840443980057996</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923504</v>
+        <v>33.284446509235</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841621</v>
+        <v>78.25064706841613</v>
       </c>
       <c r="K4" t="n">
-        <v>128.589850782353</v>
+        <v>128.5898507823528</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653053</v>
+        <v>164.5507370653051</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195706</v>
+        <v>173.4956805195704</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187285</v>
+        <v>169.3703410187283</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148689</v>
+        <v>156.4409233148688</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005026</v>
+        <v>133.8622359005025</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770372</v>
+        <v>92.67927351770362</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528308</v>
+        <v>49.76568090528303</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735294</v>
+        <v>19.28847761735292</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477769</v>
+        <v>4.729047720477764</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354607</v>
+        <v>0.06037082196354601</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31835,13 +31835,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31853,13 +31853,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,7 +32093,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797993</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,7 +32807,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,28 +33020,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,22 +33494,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,22 +33977,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>193.9649970098534</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34445,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622115</v>
+        <v>28.37304427622092</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836648</v>
+        <v>93.77486694836608</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176172</v>
+        <v>153.6105215176167</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187885</v>
+        <v>202.910633518788</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095303</v>
+        <v>210.8543522095298</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099617</v>
+        <v>185.6338248099612</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678512</v>
+        <v>123.5846788678508</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288291</v>
+        <v>44.14760702288262</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272323</v>
+        <v>101.2260048487942</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490977</v>
+        <v>148.0935919490973</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743295</v>
+        <v>263.3828147651795</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848982</v>
+        <v>212.0162936848978</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021677</v>
+        <v>171.5092504021674</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296648</v>
+        <v>118.1229442296645</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.4374011083383</v>
+        <v>28.53862929141485</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3203589564701</v>
+        <v>106.32035895647</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256214</v>
+        <v>192.1407623256212</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814112</v>
+        <v>213.079557481411</v>
       </c>
       <c r="N4" t="n">
-        <v>213.502513397957</v>
+        <v>213.5025133979568</v>
       </c>
       <c r="O4" t="n">
-        <v>180.1883115783544</v>
+        <v>180.1883115783516</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653961</v>
+        <v>131.140795165396</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009335</v>
+        <v>6.517230266009236</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35030,7 +35030,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649638</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215493</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>553.2044093850079</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35270,7 +35270,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>24.58388860977092</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35501,13 +35501,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,7 +35741,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999251</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,7 +36455,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,22 +37625,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552318</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
